--- a/phc/DB.xlsx
+++ b/phc/DB.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhjo\git\1-\phc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1505F5-35B3-4F28-8EEF-11FDA5FE0205}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="9870"/>
+    <workbookView xWindow="5070" yWindow="1860" windowWidth="21600" windowHeight="12735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="전체" sheetId="1" r:id="rId1"/>
@@ -507,106 +513,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>walking</t>
-  </si>
-  <si>
     <t>유산소</t>
   </si>
   <si>
-    <t>help to build strong bones, as it is a weight bearing exercise
-	2.strengthen muscles
-	3.improve cardiovascular fitness
-	4.burn plenty of kilojoules
-	5.help maintain a healthy weight</t>
-  </si>
-  <si>
-    <t>running</t>
-  </si>
-  <si>
     <t>Soccer</t>
   </si>
   <si>
-    <t xml:space="preserve">	1.increases aerobic capacity and cardiovascular health
-	2.lowers body fat and improves muscle tone
-	3.builds strength, flexibility and endurance
-	4.increases muscle and bone strength
-	5.improves health due to shifts between walking, running and sprinting.</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	1.burn calories (an hour of basketball can burn 630–750 calories)
-	2.build endurance
-	3.improve balance and coordination
-	4.develop concentration and self-discipline
-	5.build up muscle.</t>
-  </si>
-  <si>
     <t>Swimming</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	1.keeps your heart rate up but takes some of the impact stress off your body
-	2.builds endurance, muscle strength and cardiovascular fitness
-	3.helps maintain a healthy weight, healthy heart and lungs
-	4.tones muscles and builds strength
-	5.provides an all-over body workout, as nearly all of your muscles are used during swimming.</t>
-  </si>
-  <si>
     <t>Benchpress</t>
   </si>
   <si>
     <t>무산소</t>
   </si>
   <si>
-    <t>1.Increased Upper Body Push Strength. This point is kind of a no-brainer, but the bench press improves the amount of weight we can push/press. ...
-	2.Predictor of Upper Body Strength. ...
-	3.Bigger Pec Major. ...
-	4.Stronger Pec Minor. ...
-	5.Shredded Serratus Anterior. ...</t>
-  </si>
-  <si>
     <t>Squat</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Breathe in and push your butt back
-	2.Keep your back straight, neutral spine and chest and shoulders up
-	3.As you squat downwards, keep your knees in line with your feet
-	4.Keep going down until your hip is lower than your knee
-	</t>
-  </si>
-  <si>
     <t>Deadlift</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	1.Increased Fat Burning. ...
-	2.Better Posture. ...
-	3.More Muscles Worked. ...
-	4.Increased Real Life Lift. ...
-	5.Improved Grip Strength. …</t>
-  </si>
-  <si>
     <t>Pushup</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	1.Biceps are used during pushups, and are where a lot of people feel the burn of growing muscles.
-	2.Your triceps feel a lot of the burn too, and you can see them working when someone's doing a pushup.
-	3.Your core is activated to a great extent during a pushup, and they are considered fantastic exercises for building core strength.</t>
-  </si>
-  <si>
     <t>Situp</t>
   </si>
   <si>
-    <t>1.Core strength. Core strength is one of the biggest motivators for doing situps. ...
-	2.Improved muscle mass. Situps build muscle strength in the abdominal and hip muscles. ...
-	3.Athletic performance. ...
-	4.Better balance and stability. ...
-	5.Increased flexibility. ...</t>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,12 +584,48 @@
   <si>
     <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.help to build strong bones, as it is a weight bearing exercise  2.strengthen muscles  3.improve cardiovascular fitness  4.burn plenty of kilojoules  5.help maintain a healthy weight</t>
+  </si>
+  <si>
+    <t>1.keeps your heart rate up but takes some of the impact stress off your body  2.builds endurance, muscle strength and cardiovascular fitness  3.helps maintain a healthy weight, healthy heart and lungs  4.tones muscles and builds strength  5.provides an all-over body workout, as nearly all of your muscles are used during swimming.</t>
+  </si>
+  <si>
+    <t>1.Breathe in and push your butt back 2.Keep your back straight, neutral spine and chest and shoulders up  3.As you squat downwards, keep your knees in line with your feet  4.Keep going down until your hip is lower than your knee</t>
+  </si>
+  <si>
+    <t>1.Increased Fat Burning. …  2.Better Posture. …  3.More Muscles Worked. …  4.Increased Real Life Lift. …  5.Improved Grip Strength. …</t>
+  </si>
+  <si>
+    <t>1.Biceps are used during pushups, and are where a lot of people feel the burn of growing muscles.  2.Your triceps feel a lot of the burn too, and you can see them working when someone's doing a pushup.  3.Your core is activated to a great extent during a pushup, and they are considered fantastic exercises for building core strength.</t>
+  </si>
+  <si>
+    <t>1.Core strength. Core strength is one of the biggest motivators for doing situps. ...  2.Improved muscle mass. Situps build muscle strength in the abdominal and hip muscles. ...  3.Athletic performance. ...  4.Better balance and stability. ...  5.Increased flexibility. ...</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>1.increases aerobic capacity and cardiovascular health  2.lowers body fat and improves muscle tone  3.builds strength, flexibility and endurance  4.increases muscle and bone strength  5.improves health due to shifts between walking, running and sprinting.</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>1.burn calories (an hour of basketball can burn 630–750 calories)  2.build endurance  3.improve balance and coordination  4.develop concentration and self-discipline  5.build up muscle.</t>
+  </si>
+  <si>
+    <t>1.Increased Upper Body Push Strength. This point is kind of a no-brainer, but the bench press improves the amount of weight we can push/press. ...  2.Predictor of Upper Body Strength. ...  3.Bigger Pec Major. ...  4.Stronger Pec Minor. ...  5.Shredded Serratus Anterior. ...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,6 +754,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -832,7 +804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -865,9 +837,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -900,6 +889,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1075,10 +1081,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1307,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1375,7 +1381,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,7 +1447,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
         <v>79</v>
@@ -1531,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -2006,14 +2012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2084,201 +2090,201 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F6" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F7" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F8" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="135" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F9" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="108" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F10" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="108" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F11" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F12" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="121.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="F13" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="F14" s="4">
         <v>6</v>
@@ -2292,7 +2298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2775,7 +2781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2915,7 +2921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2993,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C5" s="7">
         <v>43696</v>
@@ -3013,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C6" s="7">
         <v>43696</v>
@@ -3033,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C7" s="7">
         <v>43696</v>
@@ -3053,7 +3059,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C8" s="7">
         <v>43696</v>
